--- a/fuentes/contenidos/grado08/guion03/SolicitudGrafica-MA_08_03_CO_REC30.xlsx
+++ b/fuentes/contenidos/grado08/guion03/SolicitudGrafica-MA_08_03_CO_REC30.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEN_3F_CDO_PC09\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CristhianAndres\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511" iterateCount="2" iterateDelta="10"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="156">
   <si>
     <t>Fecha:</t>
   </si>
@@ -1687,15 +1687,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>2391833</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:colOff>4449233</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1028700</xdr:rowOff>
+      <xdr:rowOff>1219200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1717,7 +1717,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13991167" y="1989667"/>
+          <a:off x="16368889" y="2116667"/>
           <a:ext cx="2057400" cy="1028700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1734,15 +1734,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>2370667</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>345722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2143125</xdr:colOff>
+      <xdr:colOff>4513792</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1085850</xdr:rowOff>
+      <xdr:rowOff>1431572</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1764,7 +1764,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13991167" y="3556000"/>
+          <a:off x="16347723" y="3831166"/>
           <a:ext cx="2143125" cy="1085850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1781,15 +1781,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>2321277</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>84667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2105025</xdr:colOff>
+      <xdr:colOff>4426302</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1019175</xdr:rowOff>
+      <xdr:rowOff>1103842</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1811,7 +1811,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13991167" y="5386917"/>
+          <a:off x="16298333" y="5397500"/>
           <a:ext cx="2105025" cy="1019175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1874,14 +1874,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1552222</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1590675</xdr:colOff>
+      <xdr:colOff>1583619</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>1571625</xdr:rowOff>
     </xdr:to>
@@ -1905,7 +1905,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13991167" y="8445500"/>
+          <a:off x="13970000" y="8367889"/>
           <a:ext cx="1590675" cy="1571625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1915,6 +1915,61 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1167694</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2056693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2864029</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1767416</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15158861" y="10502193"/>
+          <a:ext cx="1696335" cy="1785056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2637,9 +2692,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3012,25 +3067,31 @@
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="str">
-        <f t="shared" ref="A15:A30" si="3">IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),CONCATENATE(LEFT(A14,3),IF(MID(A14,4,2)+1&lt;10,CONCATENATE("0",MID(A14,4,2)+1))),"")</f>
-        <v/>
-      </c>
-      <c r="B15" s="28"/>
+        <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),"IMG01","")</f>
+        <v>IMG01</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>148</v>
+      </c>
       <c r="C15" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+        <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Recurso M3A</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>147</v>
+      </c>
       <c r="F15" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),CONCATENATE($C$7,"_",$A15,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I15="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>MA_08_02_CO_REC30_IMG01.png</v>
       </c>
       <c r="G15" s="14" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>110 x 110 px</v>
       </c>
       <c r="H15" s="14" t="str">
         <f t="shared" si="2"/>
@@ -3044,39 +3105,21 @@
       <c r="K15" s="21"/>
     </row>
     <row r="16" spans="1:16" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="A16" s="13"/>
       <c r="B16" s="28"/>
-      <c r="C16" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="C16" s="27"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G16" s="14" t="str">
-        <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H16" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I16" s="14" t="str">
-        <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="34"/>
       <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A15:A30" si="3">IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),CONCATENATE(LEFT(A16,3),IF(MID(A16,4,2)+1&lt;10,CONCATENATE("0",MID(A16,4,2)+1))),"")</f>
         <v/>
       </c>
       <c r="B17" s="28"/>
@@ -5501,7 +5544,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="72.25" style="38" customWidth="1"/>
     <col min="2" max="2" width="11" style="38"/>
